--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 11/NKBH_DLMaxconnect_181122.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 11/NKBH_DLMaxconnect_181122.xlsx
@@ -105,10 +105,10 @@
     <t>Tên Khách hàng: Đại lý Maxconnect</t>
   </si>
   <si>
-    <t>Ngày:  18 Tháng 11 Năm  2022</t>
-  </si>
-  <si>
     <t>WP21120135S00730/00320022EF / không kèm phụ kiện</t>
+  </si>
+  <si>
+    <t>Ngày:  21 Tháng 11 Năm  2022</t>
   </si>
 </sst>
 </file>
@@ -347,6 +347,21 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -373,21 +388,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -429,7 +429,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -803,7 +803,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -825,57 +825,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="15" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="23"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="23" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="23"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="23" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="23"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -909,7 +909,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -936,29 +936,29 @@
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22" t="s">
+      <c r="J7" s="27"/>
+      <c r="K7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="22"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="4" t="s">
         <v>3</v>
       </c>
@@ -967,74 +967,74 @@
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="27" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="27"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="25"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="26"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -1076,33 +1076,33 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24" t="s">
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="24"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F15" s="6"/>
@@ -1121,13 +1121,15 @@
     <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="E1:K3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
@@ -1138,15 +1140,13 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="E1:K3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1.5" header="0" footer="0"/>
